--- a/Testovi.xlsx
+++ b/Testovi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\petar\Desktop\SI_2022_lab2_173257\SI_2022_lab2_173257\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BBB5214-E046-4AE1-B823-1D9C4CD816AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD78427A-219E-45FB-855A-6BC4389A6D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15090" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{F93F15C7-D690-4B55-8F80-91CC1C3335CB}"/>
+    <workbookView xWindow="7200" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{F93F15C7-D690-4B55-8F80-91CC1C3335CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>*</t>
   </si>
@@ -50,10 +50,118 @@
     <t>list.size=9 n=9 rootOfN=3</t>
   </si>
   <si>
-    <t>list=["0", "#", "0", "0", "0", "#", "0", "#", "#"]</t>
-  </si>
-  <si>
     <t>list=["0", "#", "0", "0", "0", "#", "#", "#", "#"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every Statement </t>
+  </si>
+  <si>
+    <t>Every Branch</t>
+  </si>
+  <si>
+    <t>1 -2</t>
+  </si>
+  <si>
+    <t>2-3,4</t>
+  </si>
+  <si>
+    <t>3,4-35</t>
+  </si>
+  <si>
+    <t>2-5,6,7</t>
+  </si>
+  <si>
+    <t>5,6,7-8,9</t>
+  </si>
+  <si>
+    <t>8,9-35</t>
+  </si>
+  <si>
+    <t>5,6,7 - 10</t>
+  </si>
+  <si>
+    <t>11.2 - 12</t>
+  </si>
+  <si>
+    <t>11.1 -11.2</t>
+  </si>
+  <si>
+    <t>10 - 11.1</t>
+  </si>
+  <si>
+    <t>12 - 13</t>
+  </si>
+  <si>
+    <t>13 - 14</t>
+  </si>
+  <si>
+    <t>14 - 15</t>
+  </si>
+  <si>
+    <t>15 - 18,19,20</t>
+  </si>
+  <si>
+    <t>18,19,20 -21</t>
+  </si>
+  <si>
+    <t>15 - 16,17</t>
+  </si>
+  <si>
+    <t>16,17 - 21</t>
+  </si>
+  <si>
+    <t>21 -22</t>
+  </si>
+  <si>
+    <t>22-23,24</t>
+  </si>
+  <si>
+    <t>23-24-25</t>
+  </si>
+  <si>
+    <t>22-25</t>
+  </si>
+  <si>
+    <t>25- 26,27</t>
+  </si>
+  <si>
+    <t>25- 28</t>
+  </si>
+  <si>
+    <t>26,27-28</t>
+  </si>
+  <si>
+    <t>28-29</t>
+  </si>
+  <si>
+    <t>29-11.3</t>
+  </si>
+  <si>
+    <t>11.3-11.2</t>
+  </si>
+  <si>
+    <t>30-31,32</t>
+  </si>
+  <si>
+    <t>31,32-33</t>
+  </si>
+  <si>
+    <t>33-11.3</t>
+  </si>
+  <si>
+    <t>11.2-33,34</t>
+  </si>
+  <si>
+    <t>33,34-35</t>
+  </si>
+  <si>
+    <t>12-30</t>
+  </si>
+  <si>
+    <t>14-22</t>
+  </si>
+  <si>
+    <t>list=["0", "#", "0", "#", "0", "#", "0", "#", "#"]</t>
   </si>
 </sst>
 </file>
@@ -90,8 +198,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,443 +515,630 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E595B497-AD68-482F-9C2F-FEF7EECB7AA1}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" customWidth="1"/>
     <col min="4" max="4" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="40.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="D31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="D34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="D35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="D36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="C46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="C47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>0</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D36" t="s">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>0</v>
-      </c>
+      <c r="D72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>